--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_14_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>809487.0801749927</v>
+        <v>846958.2665205533</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367737</v>
+        <v>6542240.186367731</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>244.8448976285502</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>19.98946990210342</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.2631489093116</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>72.34071175838929</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>39.1362579394111</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>79.63579206135151</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>187.2268382559167</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>54.68264738641538</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -986,10 +986,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>100.2843687542214</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>7.070701773123118</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
         <v>193.6498268080145</v>
@@ -1037,10 +1037,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>28.34177719557128</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
         <v>222.1557535054015</v>
@@ -1113,13 +1113,13 @@
         <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>202.3152480123046</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>44.13609843311977</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>251.7410622343816</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1.781160222249666</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>69.4236609913555</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>193.2852664785245</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>242.7844357512411</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>35.22061871095692</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>99.46193284122488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.6194020613864</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>92.47445699814486</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.31619773794256</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>195.5188969500066</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>113.9797665655277</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>157.4513740875579</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414546</v>
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>36.41670903610098</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>80.71606764504786</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,19 +2089,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>25.76404188061071</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>217.7139640359379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>70.82764119510665</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,19 +2295,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>99.45907034079646</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>78.47556194058218</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>61.4169936080618</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>51.56940315609284</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.4425172951288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,16 +2566,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>72.40982701081523</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>58.92805047992073</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>35.19569619650092</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>65.33825739391212</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>129.0278256233119</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>133.3858541692067</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>159.6553095852809</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>178.6478431952961</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>116.6290529729276</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>39.77808571121552</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>19.84006383513595</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>133.5962940431031</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>7.601081015447011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>4.043187116398514</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>40.36759699736827</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>121.0389903687758</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492337</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>94.87954332650938</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>317.8977367051468</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>126.53888249517</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>112.469933802132</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>162.8178883110056</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>210.2027402306658</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>121.0389903687767</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247588</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.68984412497</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>155.6249412521982</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287.4747669672986</v>
+        <v>268.4151888127975</v>
       </c>
       <c r="C2" t="n">
-        <v>287.4747669672986</v>
+        <v>268.4151888127975</v>
       </c>
       <c r="D2" t="n">
-        <v>287.4747669672986</v>
+        <v>268.4151888127975</v>
       </c>
       <c r="E2" t="n">
-        <v>287.4747669672986</v>
+        <v>268.4151888127975</v>
       </c>
       <c r="F2" t="n">
         <v>21.0971104001205</v>
@@ -4330,22 +4330,22 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1034.664136266527</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>820.2300801016547</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>820.2300801016547</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V2" t="n">
-        <v>820.2300801016547</v>
+        <v>534.7928453799755</v>
       </c>
       <c r="W2" t="n">
-        <v>820.2300801016547</v>
+        <v>268.4151888127975</v>
       </c>
       <c r="X2" t="n">
-        <v>553.8524235344767</v>
+        <v>268.4151888127975</v>
       </c>
       <c r="Y2" t="n">
-        <v>553.8524235344767</v>
+        <v>268.4151888127975</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.5346345509403</v>
+        <v>268.6215656998226</v>
       </c>
       <c r="C3" t="n">
-        <v>138.5346345509403</v>
+        <v>94.16853641869554</v>
       </c>
       <c r="D3" t="n">
-        <v>138.5346345509403</v>
+        <v>94.16853641869554</v>
       </c>
       <c r="E3" t="n">
-        <v>21.0971104001205</v>
+        <v>94.16853641869554</v>
       </c>
       <c r="F3" t="n">
-        <v>21.0971104001205</v>
+        <v>94.16853641869554</v>
       </c>
       <c r="G3" t="n">
         <v>21.0971104001205</v>
@@ -4409,25 +4409,25 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>887.8833378166546</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="U3" t="n">
-        <v>808.3837902496286</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="V3" t="n">
-        <v>808.3837902496286</v>
+        <v>691.0742594480922</v>
       </c>
       <c r="W3" t="n">
-        <v>554.1464335214271</v>
+        <v>436.8369027198906</v>
       </c>
       <c r="X3" t="n">
-        <v>346.2949333158942</v>
+        <v>436.8369027198906</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.5346345509403</v>
+        <v>436.8369027198906</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.62868407629333</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C4" t="n">
-        <v>60.62868407629333</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>60.62868407629333</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>60.62868407629333</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
         <v>21.0971104001205</v>
@@ -4491,19 +4491,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>974.4153260046596</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165363</v>
+        <v>767.628291415171</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165363</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="U4" t="n">
-        <v>581.6908288493582</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="V4" t="n">
-        <v>327.0063406434714</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="W4" t="n">
-        <v>60.62868407629333</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X4" t="n">
-        <v>60.62868407629333</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y4" t="n">
-        <v>60.62868407629333</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>967.0374060366719</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="C5" t="n">
-        <v>967.0374060366719</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="D5" t="n">
-        <v>608.7717074299214</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="E5" t="n">
-        <v>222.9834548316772</v>
+        <v>861.2976501679159</v>
       </c>
       <c r="F5" t="n">
-        <v>222.9834548316772</v>
+        <v>450.3117453783084</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135731</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135731</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135731</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780277</v>
+        <v>108.4604468780276</v>
       </c>
       <c r="K5" t="n">
-        <v>270.997549081869</v>
+        <v>270.9975490818689</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373979</v>
+        <v>509.5409587373978</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176478</v>
+        <v>806.6359018176472</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058969</v>
+        <v>1113.151960058968</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836696</v>
+        <v>1389.251120836695</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921688</v>
+        <v>1590.394365921687</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567866</v>
+        <v>1638.036822207849</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567866</v>
+        <v>1638.036822207849</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567866</v>
+        <v>1638.036822207849</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.271819567866</v>
+        <v>1638.036822207849</v>
       </c>
       <c r="W5" t="n">
-        <v>1340.503164297752</v>
+        <v>1638.036822207849</v>
       </c>
       <c r="X5" t="n">
-        <v>967.0374060366719</v>
+        <v>1638.036822207849</v>
       </c>
       <c r="Y5" t="n">
-        <v>967.0374060366719</v>
+        <v>1247.897490232038</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651.1886580981907</v>
+        <v>468.8532628539211</v>
       </c>
       <c r="C6" t="n">
-        <v>476.7356288170636</v>
+        <v>294.400233572794</v>
       </c>
       <c r="D6" t="n">
-        <v>476.7356288170636</v>
+        <v>294.400233572794</v>
       </c>
       <c r="E6" t="n">
-        <v>317.4981738116081</v>
+        <v>135.1627785673385</v>
       </c>
       <c r="F6" t="n">
-        <v>170.9636158384931</v>
+        <v>135.1627785673385</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135731</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135731</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135731</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J6" t="n">
-        <v>124.0742315427335</v>
+        <v>59.4758666532443</v>
       </c>
       <c r="K6" t="n">
-        <v>246.0013607545388</v>
+        <v>181.4029958650494</v>
       </c>
       <c r="L6" t="n">
-        <v>456.2699738772737</v>
+        <v>391.6716089877842</v>
       </c>
       <c r="M6" t="n">
-        <v>721.0003958340149</v>
+        <v>656.4020309445252</v>
       </c>
       <c r="N6" t="n">
-        <v>1007.146089245743</v>
+        <v>1075.486806287572</v>
       </c>
       <c r="O6" t="n">
-        <v>1246.69370041994</v>
+        <v>1454.67021527843</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.618711034409</v>
+        <v>1627.595225892899</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567865</v>
       </c>
       <c r="S6" t="n">
-        <v>1686.129696564711</v>
+        <v>1550.18015784311</v>
       </c>
       <c r="T6" t="n">
-        <v>1490.52381090005</v>
+        <v>1354.574272178449</v>
       </c>
       <c r="U6" t="n">
-        <v>1262.407603555534</v>
+        <v>1126.458064833933</v>
       </c>
       <c r="V6" t="n">
-        <v>1027.255495323792</v>
+        <v>891.3059566021907</v>
       </c>
       <c r="W6" t="n">
-        <v>1027.255495323792</v>
+        <v>637.0685998739891</v>
       </c>
       <c r="X6" t="n">
-        <v>819.4039951182588</v>
+        <v>637.0685998739891</v>
       </c>
       <c r="Y6" t="n">
-        <v>819.4039951182588</v>
+        <v>637.0685998739891</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.86543639135731</v>
+        <v>62.49349416466163</v>
       </c>
       <c r="C7" t="n">
-        <v>33.86543639135731</v>
+        <v>62.49349416466163</v>
       </c>
       <c r="D7" t="n">
-        <v>33.86543639135731</v>
+        <v>62.49349416466163</v>
       </c>
       <c r="E7" t="n">
-        <v>33.86543639135731</v>
+        <v>62.49349416466163</v>
       </c>
       <c r="F7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.8654363913573</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652195</v>
+        <v>36.28512133652189</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128598</v>
+        <v>170.0982437128596</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119587</v>
+        <v>396.8594047119585</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191538</v>
+        <v>646.3363778191535</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361653</v>
+        <v>895.315962536165</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021381</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
         <v>1268.828805580466</v>
@@ -4752,25 +4752,25 @@
         <v>1295.862163397014</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397014</v>
+        <v>1093.436447486384</v>
       </c>
       <c r="T7" t="n">
-        <v>1071.462412381457</v>
+        <v>869.0366964708269</v>
       </c>
       <c r="U7" t="n">
-        <v>782.3259310102701</v>
+        <v>579.9002150996396</v>
       </c>
       <c r="V7" t="n">
-        <v>527.6414428043832</v>
+        <v>579.9002150996396</v>
       </c>
       <c r="W7" t="n">
-        <v>238.2242727674226</v>
+        <v>290.483045062679</v>
       </c>
       <c r="X7" t="n">
-        <v>33.86543639135731</v>
+        <v>62.49349416466163</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.86543639135731</v>
+        <v>62.49349416466163</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1211.005488048709</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C8" t="n">
-        <v>1211.005488048709</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="D8" t="n">
-        <v>852.7397894419585</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="E8" t="n">
-        <v>466.9515368437143</v>
+        <v>922.5193592425337</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>511.5334544529262</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>95.828704177215</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>95.828704177215</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4837,19 +4837,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1974.6105782856</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1974.6105782856</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1601.144820024521</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1211.005488048709</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>121.3716966602814</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>121.3716966602814</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>121.3716966602814</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>121.3716966602814</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
         <v>51.24678656800311</v>
@@ -4995,19 +4995,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387894</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>570.1538267018288</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>342.1642758038115</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.3716966602814</v>
+        <v>53.04593830764924</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1303.529887077737</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C11" t="n">
-        <v>934.5673701373257</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D11" t="n">
-        <v>934.5673701373257</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
         <v>108.5090151927147</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2764.100601731356</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2433.037714387785</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W11" t="n">
-        <v>2080.269059117671</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X11" t="n">
-        <v>2080.269059117671</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y11" t="n">
-        <v>1690.129727141859</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="12">
@@ -5111,10 +5111,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5126,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>551.0642295677645</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C13" t="n">
-        <v>382.1280466398576</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D13" t="n">
-        <v>382.1280466398576</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E13" t="n">
-        <v>234.2149530574645</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5241,10 +5241,10 @@
         <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>771.8568087112947</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>551.0642295677645</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F14" t="n">
         <v>821.1650657389509</v>
@@ -5275,13 +5275,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,7 +5290,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5299,31 +5299,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136267</v>
+        <v>3084.386464185371</v>
       </c>
       <c r="V14" t="n">
-        <v>3215.315153136267</v>
+        <v>3084.386464185371</v>
       </c>
       <c r="W14" t="n">
-        <v>3215.315153136267</v>
+        <v>3084.386464185371</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2710.920705924291</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2320.781373948479</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>846.3749096777598</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C16" t="n">
-        <v>677.4387267498529</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3220873375171</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3220873375171</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396067</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143257</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1705.527932658019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V16" t="n">
-        <v>1450.843444452132</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W16" t="n">
-        <v>1161.426274415171</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X16" t="n">
-        <v>1161.426274415171</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="Y16" t="n">
-        <v>940.6336952716412</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1418.660964416654</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C17" t="n">
-        <v>1049.698447476243</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>934.5673701373257</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5536,7 +5536,7 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609172</v>
@@ -5545,22 +5545,22 @@
         <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993395</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267231</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
         <v>2535.03470992366</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653546</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392466</v>
+        <v>2023.224262645911</v>
       </c>
       <c r="Y17" t="n">
-        <v>1418.660964416654</v>
+        <v>2023.224262645911</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992584</v>
@@ -5618,22 +5618,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>270.9995076393847</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C19" t="n">
-        <v>270.9995076393847</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D19" t="n">
-        <v>234.2149530574645</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E19" t="n">
         <v>234.2149530574645</v>
@@ -5664,13 +5664,13 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484846</v>
+        <v>1845.763166628849</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1556.660299754492</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046023</v>
+        <v>1301.975811548605</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676417</v>
+        <v>1012.558641511645</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696244</v>
+        <v>784.5690906136274</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.6479724696244</v>
+        <v>563.7765114700973</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1661.795585684488</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C20" t="n">
-        <v>1292.833068744076</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D20" t="n">
-        <v>934.5673701373257</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912081</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810547</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2983.313120792599</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.5429342656</v>
+        <v>2652.250233449028</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.774278995485</v>
+        <v>2652.250233449028</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.308520734406</v>
+        <v>2278.784475187948</v>
       </c>
       <c r="Y20" t="n">
-        <v>2048.39542574861</v>
+        <v>2278.784475187948</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>848.0708164780106</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C22" t="n">
-        <v>679.1346335501037</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D22" t="n">
-        <v>529.0179941377679</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="E22" t="n">
         <v>381.1049005553748</v>
@@ -5913,16 +5913,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1169.327103036487</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W22" t="n">
-        <v>1068.863395621541</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X22" t="n">
-        <v>1068.863395621541</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y22" t="n">
-        <v>848.0708164780106</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1636.624422581789</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C23" t="n">
-        <v>1636.624422581789</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D23" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E23" t="n">
         <v>892.5704713767946</v>
@@ -5989,22 +5989,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296686</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2786.829352882803</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2786.829352882803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X23" t="n">
-        <v>2413.363594621723</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y23" t="n">
-        <v>2023.224262645911</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6086,10 +6086,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.51211643218342</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="C25" t="n">
-        <v>66.51211643218342</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="D25" t="n">
-        <v>66.51211643218342</v>
+        <v>530.5208839553051</v>
       </c>
       <c r="E25" t="n">
-        <v>66.51211643218342</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
         <v>1317.747152581905</v>
@@ -6168,10 +6168,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
         <v>1735.608663915319</v>
@@ -6180,19 +6180,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V25" t="n">
-        <v>970.0546934046018</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W25" t="n">
-        <v>680.6375233676413</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X25" t="n">
-        <v>452.6479724696239</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="Y25" t="n">
-        <v>248.1605812624231</v>
+        <v>680.6375233676408</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3252.464582204308</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136266</v>
+        <v>3046.48683458853</v>
       </c>
       <c r="U26" t="n">
-        <v>3155.791869823214</v>
+        <v>3046.48683458853</v>
       </c>
       <c r="V26" t="n">
-        <v>3155.791869823214</v>
+        <v>2715.423947244959</v>
       </c>
       <c r="W26" t="n">
-        <v>3155.791869823214</v>
+        <v>2715.423947244959</v>
       </c>
       <c r="X26" t="n">
-        <v>2782.326111562134</v>
+        <v>2341.958188983879</v>
       </c>
       <c r="Y26" t="n">
-        <v>2392.186779586323</v>
+        <v>1951.818857008067</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,10 +6323,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
         <v>2564.909189125856</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>102.0633247114773</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6405,10 +6405,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
         <v>1735.608663915319</v>
@@ -6417,19 +6417,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610488</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046014</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676408</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696235</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260934</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1661.795585684488</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C29" t="n">
-        <v>1292.833068744076</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D29" t="n">
-        <v>934.5673701373257</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G29" t="n">
         <v>108.5090151927147</v>
@@ -6466,7 +6466,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329465</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X29" t="n">
-        <v>2051.9349176603</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1661.795585684488</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="30">
@@ -6560,7 +6560,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
         <v>66.51211643218342</v>
@@ -6657,16 +6657,16 @@
         <v>1224.739181610488</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046014</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676408</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696235</v>
+        <v>996.7496307124709</v>
       </c>
       <c r="Y31" t="n">
-        <v>231.8553933260934</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2120.647175555802</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C32" t="n">
-        <v>1751.684658615391</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="D32" t="n">
-        <v>1393.41896000864</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>1073.02283824073</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>662.0369334511224</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>246.9644832961189</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V32" t="n">
-        <v>2884.252265792694</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W32" t="n">
-        <v>2884.252265792694</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X32" t="n">
-        <v>2510.786507531614</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y32" t="n">
-        <v>2120.647175555802</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>403.1511359853713</v>
+        <v>423.5412774992668</v>
       </c>
       <c r="C34" t="n">
-        <v>234.2149530574644</v>
+        <v>254.6050945713599</v>
       </c>
       <c r="D34" t="n">
-        <v>234.2149530574644</v>
+        <v>254.6050945713599</v>
       </c>
       <c r="E34" t="n">
-        <v>234.2149530574644</v>
+        <v>106.6920009889668</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U34" t="n">
-        <v>1513.842048484845</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>1259.157560278958</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W34" t="n">
-        <v>969.7403902419971</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X34" t="n">
-        <v>741.7508393439798</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y34" t="n">
-        <v>520.9582602004497</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1681.836054204827</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C35" t="n">
-        <v>1312.873537264416</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D35" t="n">
-        <v>954.6078386576651</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218342</v>
@@ -6940,7 +6940,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
@@ -6949,7 +6949,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X35" t="n">
-        <v>2071.975386180639</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y35" t="n">
-        <v>1681.836054204827</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.8928126690271</v>
+        <v>684.4520072430311</v>
       </c>
       <c r="C37" t="n">
-        <v>234.2149530574645</v>
+        <v>515.5158243151242</v>
       </c>
       <c r="D37" t="n">
-        <v>234.2149530574645</v>
+        <v>365.3991849027884</v>
       </c>
       <c r="E37" t="n">
-        <v>234.2149530574645</v>
+        <v>217.4860913203953</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>70.59614382248495</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218342</v>
@@ -7125,22 +7125,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408143</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427969</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.5412774992668</v>
+        <v>866.1004720732708</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1689.318139675982</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C38" t="n">
-        <v>1320.35562273557</v>
+        <v>1148.925018530803</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>790.6593199240526</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>404.8710673258084</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7186,40 +7186,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410102</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W38" t="n">
-        <v>2839.523069976995</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X38" t="n">
-        <v>2466.057311715915</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y38" t="n">
-        <v>2075.917979740103</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7274,7 +7274,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>403.1511359853714</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610488</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>970.0546934046014</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W40" t="n">
-        <v>680.6375233676408</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X40" t="n">
-        <v>584.7996008156111</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y40" t="n">
-        <v>584.7996008156111</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2047.583838282732</v>
+        <v>1624.638712032431</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.62132134232</v>
+        <v>1255.676195092019</v>
       </c>
       <c r="D41" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E41" t="n">
         <v>934.5673701373257</v>
@@ -7408,55 +7408,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W41" t="n">
-        <v>3197.788768583745</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X41" t="n">
-        <v>2824.323010322666</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y41" t="n">
-        <v>2434.183678346854</v>
+        <v>1624.638712032431</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>403.1511359853713</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C43" t="n">
-        <v>234.2149530574644</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D43" t="n">
-        <v>234.2149530574644</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E43" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,10 +7590,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
         <v>1735.608663915319</v>
@@ -7602,19 +7602,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610488</v>
+        <v>1400.236054745318</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046014</v>
+        <v>1400.236054745318</v>
       </c>
       <c r="W43" t="n">
-        <v>970.0546934046014</v>
+        <v>1110.818884708357</v>
       </c>
       <c r="X43" t="n">
-        <v>805.5921799591412</v>
+        <v>882.8293338103399</v>
       </c>
       <c r="Y43" t="n">
-        <v>584.799600815611</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1848.950422814785</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V44" t="n">
-        <v>2961.784676410101</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W44" t="n">
-        <v>2609.016021139987</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X44" t="n">
-        <v>2235.550262878907</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y44" t="n">
-        <v>2235.550262878907</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387288</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927764</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,37 +7742,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218339</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218339</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218339</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915318</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484844</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610487</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046005</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676399</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696226</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y46" t="n">
-        <v>231.8553933260925</v>
+        <v>715.126497185059</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157951</v>
+        <v>25.82445471157959</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>65.25087362574658</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>134.2819009407261</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>141.04626042087</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688988</v>
+        <v>45.32591189688992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>54.9531451156659</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.580957587066223e-12</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,7 +22558,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>162.0311481131613</v>
       </c>
       <c r="G2" t="n">
         <v>412.83417464571</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>132.7782232971188</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590681</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>41.38193154608932</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>63.68200782803416</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -22676,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22691,10 +22691,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22716,7 +22716,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>106.2847900835202</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>47.86881082231241</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117122</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508475</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>225.0550076411649</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539868</v>
+        <v>94.01296546539872</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398514</v>
+        <v>85.49885445343604</v>
       </c>
       <c r="T5" t="n">
         <v>209.8718965061022</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22874,16 +22874,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>35.44282889844297</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>96.62520054253652</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813369</v>
+        <v>33.74703566813371</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.5900433343839</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22925,10 +22925,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22953,7 +22953,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>117.07927082736</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
@@ -22962,7 +22962,7 @@
         <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,13 +23001,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>23.39440737673252</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,16 +23023,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>21.57381423935072</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>76.01119623575335</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>178.0508199596876</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>75.99738703157574</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>161.3977751421585</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>8.210736207660915</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>132.0262023876709</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>126.2477225478123</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>121.3757698975156</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>277.2566436803241</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.51578244399474</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>30.1907584390305</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>240.7032750551553</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>212.2797265909111</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>112.1987639821114</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,10 +23940,10 @@
         <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>138.8328816311213</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,19 +23977,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>225.2311300782913</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>168.5239746201157</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>75.60632145146252</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>187.0639279957945</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>249.2766965295527</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>308.3141070704072</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>94.86455949047632</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>16.14213605696602</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>36.7779347773606</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>192.0671214789812</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696645</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>111.2382664500683</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>317.3955842695685</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>240.7032750551571</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696645</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>85.19879918288814</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>222.2750604869809</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>115.9599211920244</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>63.20292720900972</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,13 +25083,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>105.6429623117157</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,13 +25125,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>362.0903062371258</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>236.1348066353659</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>159.6457400831808</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>161.9826211426297</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>366.5084487443432</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>228.2019783486372</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>105.0742887270139</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>130.8301120625278</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>36.78530491553613</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>222.702086222243</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>173.7419044034808</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>62.89176707803153</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>155.0701515403418</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>206.7132681013582</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.1421360569673</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.95971209989656</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>512243.9189511333</v>
+        <v>512243.9189511332</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>620448.9589002477</v>
+        <v>620448.9589002475</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>766488.4087227279</v>
+        <v>766488.4087227278</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>843982.1079889286</v>
+        <v>843982.1079889284</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>843982.1079889287</v>
+        <v>843982.1079889286</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>843982.1079889284</v>
+        <v>843982.1079889283</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>843982.1079889282</v>
+        <v>843982.1079889283</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>843982.1079889283</v>
+        <v>843982.1079889284</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>843982.1079889282</v>
+        <v>843982.1079889284</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>214164.910256968</v>
       </c>
       <c r="C2" t="n">
-        <v>259834.9292344155</v>
+        <v>259834.9292344154</v>
       </c>
       <c r="D2" t="n">
-        <v>321270.212019024</v>
+        <v>321270.2120190238</v>
       </c>
       <c r="E2" t="n">
-        <v>358046.9539194664</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="F2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="G2" t="n">
         <v>358046.9539194665</v>
-      </c>
-      <c r="G2" t="n">
-        <v>358046.9539194667</v>
       </c>
       <c r="H2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="I2" t="n">
+        <v>358046.9539194666</v>
+      </c>
+      <c r="J2" t="n">
         <v>358046.9539194665</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>358046.9539194666</v>
-      </c>
-      <c r="K2" t="n">
-        <v>358046.9539194665</v>
       </c>
       <c r="L2" t="n">
         <v>358046.9539194666</v>
       </c>
       <c r="M2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194667</v>
       </c>
       <c r="N2" t="n">
-        <v>358046.9539194666</v>
+        <v>358046.9539194665</v>
       </c>
       <c r="O2" t="n">
         <v>358046.9539194666</v>
@@ -26368,19 +26368,19 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739496</v>
+        <v>176672.6241739494</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819077</v>
+        <v>223886.3093819081</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911414</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640796</v>
+        <v>41076.98154640786</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.2912194682</v>
+        <v>54988.29121946831</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>47552.26579341485</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12754.47490881741</v>
+        <v>12754.4749088174</v>
       </c>
       <c r="C4" t="n">
-        <v>14520.08689902885</v>
+        <v>14520.08689902886</v>
       </c>
       <c r="D4" t="n">
-        <v>17379.72927547096</v>
+        <v>17379.72927547097</v>
       </c>
       <c r="E4" t="n">
         <v>9160.459137079168</v>
@@ -26432,16 +26432,16 @@
         <v>9160.459137079168</v>
       </c>
       <c r="G4" t="n">
-        <v>9160.459137079153</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="H4" t="n">
-        <v>9160.459137079155</v>
+        <v>9160.459137079168</v>
       </c>
       <c r="I4" t="n">
+        <v>9160.459137079182</v>
+      </c>
+      <c r="J4" t="n">
         <v>9160.459137079168</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9160.459137079182</v>
       </c>
       <c r="K4" t="n">
         <v>9160.459137079168</v>
@@ -26453,13 +26453,13 @@
         <v>9160.459137079168</v>
       </c>
       <c r="N4" t="n">
-        <v>9160.459137079168</v>
+        <v>9160.459137079182</v>
       </c>
       <c r="O4" t="n">
         <v>9160.459137079168</v>
       </c>
       <c r="P4" t="n">
-        <v>9160.459137079193</v>
+        <v>9160.459137079168</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923113</v>
+        <v>75746.8716792311</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26481,10 +26481,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.34056139331</v>
-      </c>
-      <c r="G5" t="n">
-        <v>74306.34056139333</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26499,19 +26499,19 @@
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="O5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552053.0636340602</v>
+        <v>-542758.1199659839</v>
       </c>
       <c r="C6" t="n">
-        <v>-15257.60589609567</v>
+        <v>-7919.948755624125</v>
       </c>
       <c r="D6" t="n">
-        <v>-18161.06180009106</v>
+        <v>-13456.34535038917</v>
       </c>
       <c r="E6" t="n">
-        <v>89030.98510574225</v>
+        <v>92159.55547399752</v>
       </c>
       <c r="F6" t="n">
-        <v>271103.9649229329</v>
+        <v>274232.535291188</v>
       </c>
       <c r="G6" t="n">
-        <v>271103.964922933</v>
+        <v>274232.5352911879</v>
       </c>
       <c r="H6" t="n">
-        <v>271103.9649229333</v>
+        <v>274232.535291188</v>
       </c>
       <c r="I6" t="n">
-        <v>271103.9649229331</v>
+        <v>274232.5352911882</v>
       </c>
       <c r="J6" t="n">
-        <v>202104.810503819</v>
+        <v>205233.3808720738</v>
       </c>
       <c r="K6" t="n">
-        <v>230026.983376525</v>
+        <v>233155.5537447801</v>
       </c>
       <c r="L6" t="n">
-        <v>216115.6737034649</v>
+        <v>219244.2440717198</v>
       </c>
       <c r="M6" t="n">
-        <v>223551.6991295182</v>
+        <v>226680.2694977733</v>
       </c>
       <c r="N6" t="n">
-        <v>271103.964922933</v>
+        <v>274232.5352911879</v>
       </c>
       <c r="O6" t="n">
-        <v>271103.9649229331</v>
+        <v>274232.535291188</v>
       </c>
       <c r="P6" t="n">
-        <v>271103.964922933</v>
+        <v>274232.5352911879</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908059</v>
+        <v>751.4467899908055</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919665</v>
+        <v>423.3179548919662</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022931</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26962,19 +26962,19 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213275</v>
+        <v>137.3917762213273</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267333</v>
+        <v>182.6181021267337</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904602</v>
+        <v>159.60407489046</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080724</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904602</v>
+        <v>159.6040748904598</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080722</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904602</v>
+        <v>159.60407489046</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080724</v>
+        <v>217.2668772080726</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053489</v>
+        <v>3.020891618053487</v>
       </c>
       <c r="H5" t="n">
-        <v>30.9377062833903</v>
+        <v>30.93770628339028</v>
       </c>
       <c r="I5" t="n">
         <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677675</v>
+        <v>256.3943999677674</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599718</v>
+        <v>384.2687421599716</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159763</v>
+        <v>476.7193540159761</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285351</v>
+        <v>530.4421353285348</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383296</v>
+        <v>539.0252436383294</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113101</v>
+        <v>508.9862526113099</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906146</v>
+        <v>434.4079907906143</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190739</v>
+        <v>326.2223097190737</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025526</v>
+        <v>189.7610831025525</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639395</v>
+        <v>68.83856774639391</v>
       </c>
       <c r="T5" t="n">
         <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.241671329444279</v>
+        <v>0.2416713294442789</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546262</v>
+        <v>1.616319510546261</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395995</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328139</v>
+        <v>55.64959718328137</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433203</v>
+        <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499199</v>
+        <v>261.0001553499197</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876873</v>
+        <v>350.9469182876871</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449892</v>
+        <v>409.5385005449889</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345736</v>
+        <v>420.3777660345734</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587854</v>
+        <v>384.5635284587852</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077331</v>
+        <v>308.6461353077329</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970983</v>
+        <v>206.3217676970982</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670741</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633076</v>
+        <v>30.02242599633075</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807078</v>
+        <v>6.514901886807076</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043594</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720634</v>
+        <v>40.75058985720631</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390978</v>
+        <v>95.80330632390974</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029918</v>
+        <v>157.4342619029917</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165515</v>
+        <v>201.4616525165514</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706797</v>
+        <v>212.4130655706796</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379548</v>
+        <v>207.3623576379547</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488042</v>
+        <v>191.5326998488041</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170111</v>
+        <v>163.889313017011</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886117</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843483</v>
+        <v>60.9287839884348</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544876</v>
+        <v>23.61513928544875</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879978</v>
+        <v>5.789835922879975</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548918</v>
+        <v>0.07391279901548915</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33280,10 +33280,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781694</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108124</v>
+        <v>75.34849544108113</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149912</v>
+        <v>164.1788911149911</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459891</v>
+        <v>240.9529390459889</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012624</v>
+        <v>300.0959021012621</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417387</v>
+        <v>309.6121800417384</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896234</v>
+        <v>278.8880411896232</v>
       </c>
       <c r="P5" t="n">
-        <v>203.174995035345</v>
+        <v>203.1749950353448</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446244</v>
+        <v>103.9166198446243</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>91.1199951024002</v>
+        <v>25.86912147665353</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755609</v>
+        <v>123.1587163755607</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078131</v>
+        <v>212.3925385078129</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229709</v>
+        <v>267.4044666229706</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512403</v>
+        <v>423.3179548919662</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143409</v>
+        <v>383.0135444352107</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934029</v>
+        <v>174.6717278934027</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469258</v>
+        <v>66.33999361107666</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237005</v>
+        <v>2.444126207236963</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771089</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768676</v>
+        <v>229.0516777768675</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325203</v>
+        <v>251.9969425325202</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171834</v>
+        <v>251.4945300171833</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628438</v>
+        <v>216.1178277628437</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819046</v>
+        <v>161.1678722819045</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.3064220369173</v>
+        <v>27.30642203691725</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>304.6326742391982</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687118</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597746</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
